--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Jach.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Jach.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,130 +463,681 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:25:44.14</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.52221354167</v>
       </c>
       <c r="B2" t="n">
+        <v>5513</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.853980507169453</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45687.52399479166</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5666.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.933759348733083</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45687.52990451389</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6177.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.692262411117553</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45687.52399131945</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5666.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.332655787467956</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45687.52965104167</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6155.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.421969039099557</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45687.52990219907</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6177.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.434985944202967</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.59241365741</v>
+      </c>
+      <c r="B8" t="n">
+        <v>584.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.947457892554148</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59327361111</v>
+      </c>
+      <c r="B9" t="n">
+        <v>658.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.981797490801133</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59395532408</v>
+      </c>
+      <c r="B10" t="n">
+        <v>717.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.001448018210273</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59232800926</v>
+      </c>
+      <c r="B11" t="n">
+        <v>577.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.786505733217511</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59309305556</v>
+      </c>
+      <c r="B12" t="n">
+        <v>643.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.814349157469613</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59375625</v>
+      </c>
+      <c r="B13" t="n">
+        <v>700.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.814271739551</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59845763889</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1106.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.457617555345807</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60006527778</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1245.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.00513754572187</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60120532408</v>
+      </c>
+      <c r="B16" t="n">
         <v>1344.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C16" t="n">
         <v>12.98</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D16" t="n">
         <v>3.621854237147737</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:31:27.44</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1687.4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.50711192403521</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:43:51.04</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2431</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.502533367701939</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:19:44.14</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.5970386574</v>
+      </c>
+      <c r="B17" t="n">
         <v>984.1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C17" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D17" t="n">
         <v>2.905950750623432</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:31:27.14</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1687.1</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.60120185185</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1343.8</v>
+      </c>
+      <c r="C18" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="D6" t="n">
-        <v>3.029603208814348</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:44:47.34</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2487.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.061067955834524</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="D18" t="n">
+        <v>2.716314515897204</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.60276898148</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1479.2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.758128285408019</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45686.47725740741</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1282.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.464915641716549</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45686.47489513889</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1078.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.529081412724087</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45686.47725277777</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1282.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.962150301252093</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45686.47746805556</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1301.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.376022781644549</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686.48794606482</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2206.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.99636571747916</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45686.49972268518</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3223.9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.012098584856304</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45686.50047384259</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3288.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.58328631946019</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45686.49171574074</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2532.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.746373176574708</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45686.49972152778</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3223.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.895142589296613</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45686.50047037037</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3288.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.073842832020353</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
